--- a/dados_criptomoedas.xlsx
+++ b/dados_criptomoedas.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -487,16 +487,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>618020.3</v>
+        <v>616758.4300000001</v>
       </c>
       <c r="E2" t="n">
-        <v>14286248680.47</v>
+        <v>10612028939.72</v>
       </c>
       <c r="F2" t="n">
-        <v>3.24</v>
+        <v>1.45</v>
       </c>
       <c r="G2" t="n">
-        <v>20023.86</v>
+        <v>8943</v>
       </c>
     </row>
     <row r="3">
@@ -516,16 +516,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>19165.13</v>
+        <v>19101.45</v>
       </c>
       <c r="E3" t="n">
-        <v>8042992660.77</v>
+        <v>5729592189.16</v>
       </c>
       <c r="F3" t="n">
-        <v>5.68</v>
+        <v>3.35</v>
       </c>
       <c r="G3" t="n">
-        <v>1088.58</v>
+        <v>639.9</v>
       </c>
     </row>
     <row r="4">
@@ -545,16 +545,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>18.26</v>
+        <v>18.38</v>
       </c>
       <c r="E4" t="n">
-        <v>1880125488.61</v>
+        <v>1368330620</v>
       </c>
       <c r="F4" t="n">
-        <v>2.28</v>
+        <v>1.51</v>
       </c>
       <c r="G4" t="n">
-        <v>0.42</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="5">
@@ -577,13 +577,13 @@
         <v>5.86</v>
       </c>
       <c r="E5" t="n">
-        <v>28106041841.28</v>
+        <v>21022526174.03</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02</v>
+        <v>-0.02</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="6">
@@ -603,16 +603,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1419.11</v>
+        <v>1412.59</v>
       </c>
       <c r="E6" t="n">
-        <v>2178673568.06</v>
+        <v>1547473525.29</v>
       </c>
       <c r="F6" t="n">
-        <v>6.54</v>
+        <v>2.91</v>
       </c>
       <c r="G6" t="n">
-        <v>92.81</v>
+        <v>41.11</v>
       </c>
     </row>
     <row r="7">
@@ -632,16 +632,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3988.35</v>
+        <v>3981.37</v>
       </c>
       <c r="E7" t="n">
-        <v>237618411.61</v>
+        <v>177293008.49</v>
       </c>
       <c r="F7" t="n">
-        <v>2.6</v>
+        <v>1.04</v>
       </c>
       <c r="G7" t="n">
-        <v>103.7</v>
+        <v>41.41</v>
       </c>
     </row>
     <row r="8">
@@ -664,10 +664,10 @@
         <v>5.86</v>
       </c>
       <c r="E8" t="n">
-        <v>3841824476.72</v>
+        <v>2864398034.23</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -690,16 +690,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="E9" t="n">
-        <v>791276598.04</v>
+        <v>524625718.87</v>
       </c>
       <c r="F9" t="n">
-        <v>3.03</v>
+        <v>0.98</v>
       </c>
       <c r="G9" t="n">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="10">
@@ -719,16 +719,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>5.68</v>
+        <v>5.66</v>
       </c>
       <c r="E10" t="n">
-        <v>383889456.12</v>
+        <v>273392060.6</v>
       </c>
       <c r="F10" t="n">
-        <v>5.43</v>
+        <v>1.51</v>
       </c>
       <c r="G10" t="n">
-        <v>0.31</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="11">
@@ -748,16 +748,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>19162.4</v>
+        <v>19067.51</v>
       </c>
       <c r="E11" t="n">
-        <v>502850.56</v>
+        <v>170630.86</v>
       </c>
       <c r="F11" t="n">
-        <v>5.65</v>
+        <v>3.12</v>
       </c>
       <c r="G11" t="n">
-        <v>1082.68</v>
+        <v>594.91</v>
       </c>
     </row>
     <row r="12">
@@ -777,16 +777,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="E12" t="n">
-        <v>301060401.35</v>
+        <v>224603784.26</v>
       </c>
       <c r="F12" t="n">
-        <v>5.75</v>
+        <v>4.37</v>
       </c>
       <c r="G12" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="13">
@@ -806,16 +806,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>145.59</v>
+        <v>143.89</v>
       </c>
       <c r="E13" t="n">
-        <v>391358611.72</v>
+        <v>273123623.2</v>
       </c>
       <c r="F13" t="n">
-        <v>9.470000000000001</v>
+        <v>2.43</v>
       </c>
       <c r="G13" t="n">
-        <v>13.79</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="14">
@@ -835,16 +835,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>202.08</v>
+        <v>202.1</v>
       </c>
       <c r="E14" t="n">
-        <v>161845327.72</v>
+        <v>111826326.17</v>
       </c>
       <c r="F14" t="n">
-        <v>5.87</v>
+        <v>3.4</v>
       </c>
       <c r="G14" t="n">
-        <v>11.86</v>
+        <v>6.87</v>
       </c>
     </row>
     <row r="15">
@@ -864,16 +864,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>616288.62</v>
+        <v>615039.61</v>
       </c>
       <c r="E15" t="n">
-        <v>60000361.39</v>
+        <v>55312728.75</v>
       </c>
       <c r="F15" t="n">
-        <v>3.21</v>
+        <v>1.29</v>
       </c>
       <c r="G15" t="n">
-        <v>19782.86</v>
+        <v>7934.01</v>
       </c>
     </row>
     <row r="16">
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2.57</v>
+        <v>2.52</v>
       </c>
       <c r="E16" t="n">
-        <v>280641107.94</v>
+        <v>260540675.85</v>
       </c>
       <c r="F16" t="n">
-        <v>12.65</v>
+        <v>7.84</v>
       </c>
       <c r="G16" t="n">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="17">
@@ -925,10 +925,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>124230810.13</v>
+        <v>80824678.76000001</v>
       </c>
       <c r="F17" t="n">
-        <v>4.08</v>
+        <v>0.86</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -937,436 +937,436 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>sp8de</t>
+          <t>litecoin</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Sp8de</t>
+          <t>Litecoin</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>SPX</t>
+          <t>LTC</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>8.06</v>
+        <v>761.73</v>
       </c>
       <c r="E18" t="n">
-        <v>18714649.57</v>
+        <v>705579483.1799999</v>
       </c>
       <c r="F18" t="n">
-        <v>28.62</v>
+        <v>11.83</v>
       </c>
       <c r="G18" t="n">
-        <v>2.31</v>
+        <v>90.11</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>litecoin</t>
+          <t>polkadot</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Litecoin</t>
+          <t>Polkadot</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>LTC</t>
+          <t>DOT</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>763.55</v>
+        <v>36.12</v>
       </c>
       <c r="E19" t="n">
-        <v>793236234.01</v>
+        <v>97147360.95999999</v>
       </c>
       <c r="F19" t="n">
-        <v>16.95</v>
+        <v>5.33</v>
       </c>
       <c r="G19" t="n">
-        <v>129.42</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>polkadot</t>
+          <t>bitcoin-cash</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Polkadot</t>
+          <t>Bitcoin Cash</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>DOT</t>
+          <t>BCH</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>36.08</v>
+        <v>2557.94</v>
       </c>
       <c r="E20" t="n">
-        <v>129508825.15</v>
+        <v>80232962.73999999</v>
       </c>
       <c r="F20" t="n">
-        <v>9.460000000000001</v>
+        <v>4.03</v>
       </c>
       <c r="G20" t="n">
-        <v>3.41</v>
+        <v>103.08</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>bitcoin-cash</t>
+          <t>uniswap</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Bitcoin Cash</t>
+          <t>Uniswap</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>BCH</t>
+          <t>UNI</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>2559.5</v>
+        <v>70.58</v>
       </c>
       <c r="E21" t="n">
-        <v>99159490.02</v>
+        <v>147505503.48</v>
       </c>
       <c r="F21" t="n">
-        <v>6.6</v>
+        <v>1.03</v>
       </c>
       <c r="G21" t="n">
-        <v>168.93</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>uniswap</t>
+          <t>near-protocol</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Uniswap</t>
+          <t>NEAR Protocol</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>UNI</t>
+          <t>NEAR</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>70.91</v>
+        <v>27.18</v>
       </c>
       <c r="E22" t="n">
-        <v>163933123.36</v>
+        <v>63828711.1</v>
       </c>
       <c r="F22" t="n">
-        <v>4.12</v>
+        <v>3.18</v>
       </c>
       <c r="G22" t="n">
-        <v>2.92</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>official-trump</t>
+          <t>multi-collateral-dai</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Trump Official</t>
+          <t>Multi Collateral DAI</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>TRUMP</t>
+          <t>DAI</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>160.86</v>
+        <v>5.86</v>
       </c>
       <c r="E23" t="n">
-        <v>104399767.83</v>
+        <v>104273080.87</v>
       </c>
       <c r="F23" t="n">
-        <v>1.36</v>
+        <v>-0.02</v>
       </c>
       <c r="G23" t="n">
-        <v>2.19</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>near-protocol</t>
+          <t>official-trump</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>NEAR Protocol</t>
+          <t>Trump Official</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>NEAR</t>
+          <t>TRUMP</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>27.11</v>
+        <v>155.02</v>
       </c>
       <c r="E24" t="n">
-        <v>78652839.41</v>
+        <v>72795578.06999999</v>
       </c>
       <c r="F24" t="n">
-        <v>6.08</v>
+        <v>-6.54</v>
       </c>
       <c r="G24" t="n">
-        <v>1.65</v>
+        <v>-10.14</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>multi-collateral-dai</t>
+          <t>aave</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Multi Collateral DAI</t>
+          <t>Aave</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>DAI</t>
+          <t>AAVE</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>5.86</v>
+        <v>1858.76</v>
       </c>
       <c r="E25" t="n">
-        <v>101439730.06</v>
+        <v>174802787.06</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.02</v>
+        <v>6.54</v>
       </c>
       <c r="G25" t="n">
-        <v>-0</v>
+        <v>121.56</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>hedera-hashgraph</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Aave</t>
+          <t>Hedera Hashgraph</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>AAVE</t>
+          <t>HBAR</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1852.78</v>
+        <v>1.87</v>
       </c>
       <c r="E26" t="n">
-        <v>204924228.67</v>
+        <v>112813093.95</v>
       </c>
       <c r="F26" t="n">
-        <v>9.27</v>
+        <v>2.33</v>
       </c>
       <c r="G26" t="n">
-        <v>171.75</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>hedera-hashgraph</t>
+          <t>internet-computer</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Hedera Hashgraph</t>
+          <t>Internet Computer</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>HBAR</t>
+          <t>ICP</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1.86</v>
+        <v>53.46</v>
       </c>
       <c r="E27" t="n">
-        <v>160498691.18</v>
+        <v>39595045.83</v>
       </c>
       <c r="F27" t="n">
-        <v>5.32</v>
+        <v>4.7</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1</v>
+        <v>2.51</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>internet-computer</t>
+          <t>monero</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Internet Computer</t>
+          <t>Monero</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ICP</t>
+          <t>XMR</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>53.66</v>
+        <v>1361.88</v>
       </c>
       <c r="E28" t="n">
-        <v>46670572.64</v>
+        <v>54895665.55</v>
       </c>
       <c r="F28" t="n">
-        <v>7.99</v>
+        <v>5.17</v>
       </c>
       <c r="G28" t="n">
-        <v>4.29</v>
+        <v>70.41</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>monero</t>
+          <t>ethereum-classic</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Monero</t>
+          <t>Ethereum Classic</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>XMR</t>
+          <t>ETC</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1331.73</v>
+        <v>155.03</v>
       </c>
       <c r="E29" t="n">
-        <v>49981755.8</v>
+        <v>40501096.87</v>
       </c>
       <c r="F29" t="n">
-        <v>3.18</v>
+        <v>1.99</v>
       </c>
       <c r="G29" t="n">
-        <v>42.35</v>
+        <v>3.09</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ethereum-classic</t>
+          <t>vechain</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Ethereum Classic</t>
+          <t>VeChain</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>ETC</t>
+          <t>VET</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>155.52</v>
+        <v>0.27</v>
       </c>
       <c r="E30" t="n">
-        <v>49186663.09</v>
+        <v>39633205.51</v>
       </c>
       <c r="F30" t="n">
-        <v>5.51</v>
+        <v>6.08</v>
       </c>
       <c r="G30" t="n">
-        <v>8.57</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>vechain</t>
+          <t>okb</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>VeChain</t>
+          <t>OKB</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>VET</t>
+          <t>OKB</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.28</v>
+        <v>330.58</v>
       </c>
       <c r="E31" t="n">
-        <v>47069589.3</v>
+        <v>353635.27</v>
       </c>
       <c r="F31" t="n">
-        <v>11.96</v>
+        <v>3.33</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03</v>
+        <v>11.01</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>okb</t>
+          <t>algorand</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>OKB</t>
+          <t>Algorand</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>OKB</t>
+          <t>ALGO</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>329.99</v>
+        <v>2.31</v>
       </c>
       <c r="E32" t="n">
-        <v>462113.74</v>
+        <v>65025048.22</v>
       </c>
       <c r="F32" t="n">
-        <v>4.47</v>
+        <v>4.7</v>
       </c>
       <c r="G32" t="n">
-        <v>14.75</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="33">
@@ -1386,277 +1386,277 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="E33" t="n">
-        <v>8787182.25</v>
+        <v>6274192.52</v>
       </c>
       <c r="F33" t="n">
-        <v>2.93</v>
+        <v>0.43</v>
       </c>
       <c r="G33" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>algorand</t>
+          <t>filecoin</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Algorand</t>
+          <t>Filecoin</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>ALGO</t>
+          <t>FIL</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>2.28</v>
+        <v>28.28</v>
       </c>
       <c r="E34" t="n">
-        <v>86312737.13</v>
+        <v>79042174.58</v>
       </c>
       <c r="F34" t="n">
-        <v>7.27</v>
+        <v>4.98</v>
       </c>
       <c r="G34" t="n">
-        <v>0.17</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>filecoin</t>
+          <t>mantra-dao</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Filecoin</t>
+          <t>MANTRA DAO</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>FIL</t>
+          <t>OM</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>28.12</v>
+        <v>32.68</v>
       </c>
       <c r="E35" t="n">
-        <v>99461200.01000001</v>
+        <v>295515244.64</v>
       </c>
       <c r="F35" t="n">
-        <v>8.050000000000001</v>
+        <v>19.12</v>
       </c>
       <c r="G35" t="n">
-        <v>2.26</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>mantra-dao</t>
+          <t>fetch</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>MANTRA DAO</t>
+          <t>Artificial Superintelligence Alliance</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>OM</t>
+          <t>FET</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>33.57</v>
+        <v>6.19</v>
       </c>
       <c r="E36" t="n">
-        <v>262880649.53</v>
+        <v>78768085.52</v>
       </c>
       <c r="F36" t="n">
-        <v>26.24</v>
+        <v>4.15</v>
       </c>
       <c r="G36" t="n">
-        <v>8.81</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>fetch</t>
+          <t>raydium</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Artificial Superintelligence Alliance</t>
+          <t>Raydium</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>FET</t>
+          <t>RAY</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>6.12</v>
+        <v>45.54</v>
       </c>
       <c r="E37" t="n">
-        <v>105055328.15</v>
+        <v>62469357.93</v>
       </c>
       <c r="F37" t="n">
-        <v>8.66</v>
+        <v>11.15</v>
       </c>
       <c r="G37" t="n">
-        <v>0.53</v>
+        <v>5.08</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>raydium</t>
+          <t>gatetoken</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Raydium</t>
+          <t>GateToken</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>RAY</t>
+          <t>GT</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>45.54</v>
+        <v>142.54</v>
       </c>
       <c r="E38" t="n">
-        <v>75090225.59</v>
+        <v>26749906.13</v>
       </c>
       <c r="F38" t="n">
-        <v>19.73</v>
+        <v>-0.54</v>
       </c>
       <c r="G38" t="n">
-        <v>8.99</v>
+        <v>-0.77</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>gatetoken</t>
+          <t>stacks</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>GateToken</t>
+          <t>Stacks</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>GT</t>
+          <t>STX</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>142.33</v>
+        <v>7.82</v>
       </c>
       <c r="E39" t="n">
-        <v>28325789.19</v>
+        <v>11770291.38</v>
       </c>
       <c r="F39" t="n">
-        <v>1.91</v>
+        <v>4.68</v>
       </c>
       <c r="G39" t="n">
-        <v>2.72</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>stacks</t>
+          <t>theta</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Stacks</t>
+          <t>THETA</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>STX</t>
+          <t>THETA</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>7.81</v>
+        <v>11.63</v>
       </c>
       <c r="E40" t="n">
-        <v>10985202.37</v>
+        <v>11847048.34</v>
       </c>
       <c r="F40" t="n">
-        <v>8.15</v>
+        <v>2.09</v>
       </c>
       <c r="G40" t="n">
-        <v>0.64</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>theta</t>
+          <t>lido-dao</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>THETA</t>
+          <t>Lido DAO</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>THETA</t>
+          <t>LDO</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>11.76</v>
+        <v>12.3</v>
       </c>
       <c r="E41" t="n">
-        <v>15881841.4</v>
+        <v>18942202.38</v>
       </c>
       <c r="F41" t="n">
-        <v>8.029999999999999</v>
+        <v>6.98</v>
       </c>
       <c r="G41" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>lido-dao</t>
+          <t>dexe</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Lido DAO</t>
+          <t>DeXe</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>LDO</t>
+          <t>DEXE</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>12.4</v>
+        <v>124.25</v>
       </c>
       <c r="E42" t="n">
-        <v>18617811.47</v>
+        <v>38574283.61</v>
       </c>
       <c r="F42" t="n">
-        <v>17.3</v>
+        <v>30.45</v>
       </c>
       <c r="G42" t="n">
-        <v>2.15</v>
+        <v>37.83</v>
       </c>
     </row>
     <row r="43">
@@ -1679,13 +1679,13 @@
         <v>1.07</v>
       </c>
       <c r="E43" t="n">
-        <v>28973919.02</v>
+        <v>23562295.2</v>
       </c>
       <c r="F43" t="n">
-        <v>9.48</v>
+        <v>5.44</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="44">
@@ -1705,74 +1705,74 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>82.06</v>
+        <v>82.98</v>
       </c>
       <c r="E44" t="n">
-        <v>2929553.55</v>
+        <v>3040237.77</v>
       </c>
       <c r="F44" t="n">
-        <v>3.53</v>
+        <v>4.88</v>
       </c>
       <c r="G44" t="n">
-        <v>2.9</v>
+        <v>4.05</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>dexe</t>
+          <t>cosmos</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>DeXe</t>
+          <t>Cosmos</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>DEXE</t>
+          <t>ATOM</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>114.97</v>
+        <v>36.45</v>
       </c>
       <c r="E45" t="n">
-        <v>42552800.51</v>
+        <v>59822346.67</v>
       </c>
       <c r="F45" t="n">
-        <v>28.18</v>
+        <v>5.31</v>
       </c>
       <c r="G45" t="n">
-        <v>32.4</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>cosmos</t>
+          <t>injective-protocol</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Cosmos</t>
+          <t>Injective</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>ATOM</t>
+          <t>INJ</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>36.13</v>
+        <v>118.68</v>
       </c>
       <c r="E46" t="n">
-        <v>75632534.69</v>
+        <v>34851604.13</v>
       </c>
       <c r="F46" t="n">
-        <v>7.08</v>
+        <v>7.82</v>
       </c>
       <c r="G46" t="n">
-        <v>2.56</v>
+        <v>9.279999999999999</v>
       </c>
     </row>
     <row r="47">
@@ -1792,74 +1792,74 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>3.08</v>
+        <v>3.07</v>
       </c>
       <c r="E47" t="n">
-        <v>2558861.03</v>
+        <v>2180720.12</v>
       </c>
       <c r="F47" t="n">
-        <v>15.5</v>
+        <v>6.37</v>
       </c>
       <c r="G47" t="n">
-        <v>0.48</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>injective-protocol</t>
+          <t>xinfin-network</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Injective</t>
+          <t>XinFin Network</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>INJ</t>
+          <t>XDC</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>117.62</v>
+        <v>0.65</v>
       </c>
       <c r="E48" t="n">
-        <v>42870037.44</v>
+        <v>2771279</v>
       </c>
       <c r="F48" t="n">
-        <v>10.67</v>
+        <v>3.13</v>
       </c>
       <c r="G48" t="n">
-        <v>12.55</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>xinfin-network</t>
+          <t>quant</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>XinFin Network</t>
+          <t>Quant</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>XDC</t>
+          <t>QNT</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.67</v>
+        <v>657.3200000000001</v>
       </c>
       <c r="E49" t="n">
-        <v>3581027.48</v>
+        <v>13082936.03</v>
       </c>
       <c r="F49" t="n">
-        <v>8.34</v>
+        <v>10.62</v>
       </c>
       <c r="G49" t="n">
-        <v>0.06</v>
+        <v>69.81</v>
       </c>
     </row>
     <row r="50">
@@ -1879,45 +1879,45 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>3.17</v>
+        <v>3.15</v>
       </c>
       <c r="E50" t="n">
-        <v>42715575.8</v>
+        <v>28830634.05</v>
       </c>
       <c r="F50" t="n">
-        <v>6.34</v>
+        <v>2.92</v>
       </c>
       <c r="G50" t="n">
-        <v>0.2</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>quant</t>
+          <t>gnosis-gno</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Quant</t>
+          <t>Gnosis</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>QNT</t>
+          <t>GNO</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>636.55</v>
+        <v>1269.73</v>
       </c>
       <c r="E51" t="n">
-        <v>11688486.38</v>
+        <v>2320732.58</v>
       </c>
       <c r="F51" t="n">
-        <v>10.12</v>
+        <v>2.9</v>
       </c>
       <c r="G51" t="n">
-        <v>64.42</v>
+        <v>36.82</v>
       </c>
     </row>
     <row r="52">
@@ -1937,16 +1937,16 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>4.56</v>
+        <v>4.54</v>
       </c>
       <c r="E52" t="n">
-        <v>60680867.59</v>
+        <v>51595556.86</v>
       </c>
       <c r="F52" t="n">
-        <v>7.72</v>
+        <v>2.8</v>
       </c>
       <c r="G52" t="n">
-        <v>0.35</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="53">
@@ -1966,16 +1966,16 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="E53" t="n">
-        <v>73605518.36</v>
+        <v>51931807.19</v>
       </c>
       <c r="F53" t="n">
-        <v>11.17</v>
+        <v>5.52</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="54">
@@ -1995,16 +1995,16 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>6.51</v>
+        <v>6.42</v>
       </c>
       <c r="E54" t="n">
-        <v>12295593.22</v>
+        <v>9392740.130000001</v>
       </c>
       <c r="F54" t="n">
-        <v>6.24</v>
+        <v>1.48</v>
       </c>
       <c r="G54" t="n">
-        <v>0.41</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="55">
@@ -2024,103 +2024,103 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="E55" t="n">
-        <v>20617038.4</v>
+        <v>12187317.26</v>
       </c>
       <c r="F55" t="n">
-        <v>10.86</v>
+        <v>5.08</v>
       </c>
       <c r="G55" t="n">
-        <v>0.2</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>curve-dao-token</t>
+          <t>arweave</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Curve DAO Token</t>
+          <t>Arweave</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>CRV</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>4.72</v>
+        <v>95.16</v>
       </c>
       <c r="E56" t="n">
-        <v>44451405.96</v>
+        <v>27734138.94</v>
       </c>
       <c r="F56" t="n">
-        <v>15.09</v>
+        <v>24.16</v>
       </c>
       <c r="G56" t="n">
-        <v>0.71</v>
+        <v>22.99</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>flow</t>
+          <t>curve-dao-token</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Flow</t>
+          <t>Curve DAO Token</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>FLOW</t>
+          <t>CRV</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>3.82</v>
+        <v>4.64</v>
       </c>
       <c r="E57" t="n">
-        <v>10566939.25</v>
+        <v>36291378.22</v>
       </c>
       <c r="F57" t="n">
-        <v>7.3</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G57" t="n">
-        <v>0.28</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>maker</t>
+          <t>flow</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Maker</t>
+          <t>Flow</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>MKR</t>
+          <t>FLOW</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>6561.5</v>
+        <v>3.79</v>
       </c>
       <c r="E58" t="n">
-        <v>24994589.79</v>
+        <v>8830289.73</v>
       </c>
       <c r="F58" t="n">
-        <v>1.63</v>
+        <v>2.39</v>
       </c>
       <c r="G58" t="n">
-        <v>106.95</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="59">
@@ -2140,16 +2140,16 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>82.08</v>
+        <v>81.97</v>
       </c>
       <c r="E59" t="n">
-        <v>18233032.21</v>
+        <v>14869529.99</v>
       </c>
       <c r="F59" t="n">
-        <v>8.69</v>
+        <v>4.85</v>
       </c>
       <c r="G59" t="n">
-        <v>7.13</v>
+        <v>3.98</v>
       </c>
     </row>
     <row r="60">
@@ -2169,45 +2169,45 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>291.73</v>
+        <v>290.32</v>
       </c>
       <c r="E60" t="n">
-        <v>7156230.17</v>
+        <v>6790366.26</v>
       </c>
       <c r="F60" t="n">
-        <v>4.83</v>
+        <v>1.35</v>
       </c>
       <c r="G60" t="n">
-        <v>14.09</v>
+        <v>3.92</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>arweave</t>
+          <t>maker</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Arweave</t>
+          <t>Maker</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>MKR</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>87.73999999999999</v>
+        <v>6399.8</v>
       </c>
       <c r="E61" t="n">
-        <v>18897971.35</v>
+        <v>24771432.95</v>
       </c>
       <c r="F61" t="n">
-        <v>17.87</v>
+        <v>-2.06</v>
       </c>
       <c r="G61" t="n">
-        <v>15.68</v>
+        <v>-131.84</v>
       </c>
     </row>
     <row r="62">
@@ -2227,16 +2227,16 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>8.67</v>
+        <v>8.58</v>
       </c>
       <c r="E62" t="n">
-        <v>1186885.58</v>
+        <v>1097520.46</v>
       </c>
       <c r="F62" t="n">
-        <v>3.28</v>
+        <v>1.45</v>
       </c>
       <c r="G62" t="n">
-        <v>0.28</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="63">
@@ -2259,13 +2259,13 @@
         <v>2.64</v>
       </c>
       <c r="E63" t="n">
-        <v>31025374.97</v>
+        <v>26973920.99</v>
       </c>
       <c r="F63" t="n">
-        <v>6.52</v>
+        <v>2.95</v>
       </c>
       <c r="G63" t="n">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="64">
@@ -2285,16 +2285,16 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>32.22</v>
+        <v>32.23</v>
       </c>
       <c r="E64" t="n">
-        <v>27594126.43</v>
+        <v>24887334.67</v>
       </c>
       <c r="F64" t="n">
-        <v>8.65</v>
+        <v>4.89</v>
       </c>
       <c r="G64" t="n">
-        <v>2.79</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="65">
@@ -2314,219 +2314,219 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>4.33</v>
+        <v>4.4</v>
       </c>
       <c r="E65" t="n">
-        <v>22854504.41</v>
+        <v>14971003.71</v>
       </c>
       <c r="F65" t="n">
-        <v>0.08</v>
+        <v>0.82</v>
       </c>
       <c r="G65" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>thorchain</t>
+          <t>polygon</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>THORChain</t>
+          <t>Polygon</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>RUNE</t>
+          <t>MATIC</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>13.47</v>
+        <v>2.44</v>
       </c>
       <c r="E66" t="n">
-        <v>129062053.01</v>
+        <v>4814656.41</v>
       </c>
       <c r="F66" t="n">
-        <v>13.05</v>
+        <v>3.43</v>
       </c>
       <c r="G66" t="n">
-        <v>1.76</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>polygon</t>
+          <t>thorchain</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Polygon</t>
+          <t>THORChain</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>MATIC</t>
+          <t>RUNE</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>2.45</v>
+        <v>13.02</v>
       </c>
       <c r="E67" t="n">
-        <v>7543690.14</v>
+        <v>113046291.74</v>
       </c>
       <c r="F67" t="n">
-        <v>6.54</v>
+        <v>5.97</v>
       </c>
       <c r="G67" t="n">
-        <v>0.16</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>conflux-network</t>
+          <t>helium</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Conflux</t>
+          <t>Helium</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>CFX</t>
+          <t>HNT</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0.92</v>
+        <v>25.19</v>
       </c>
       <c r="E68" t="n">
-        <v>29076613.79</v>
+        <v>3986119.29</v>
       </c>
       <c r="F68" t="n">
-        <v>7.82</v>
+        <v>6.54</v>
       </c>
       <c r="G68" t="n">
-        <v>0.07000000000000001</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>helium</t>
+          <t>conflux-network</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Helium</t>
+          <t>Conflux</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>HNT</t>
+          <t>CFX</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>24.97</v>
+        <v>0.92</v>
       </c>
       <c r="E69" t="n">
-        <v>5889287.95</v>
+        <v>20382144.83</v>
       </c>
       <c r="F69" t="n">
-        <v>8.300000000000001</v>
+        <v>1.24</v>
       </c>
       <c r="G69" t="n">
-        <v>2.07</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>reserve-rights</t>
+          <t>elrond-egld</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Reserve Rights</t>
+          <t>MultiversX</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>RSR</t>
+          <t>EGLD</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0.08</v>
+        <v>177.73</v>
       </c>
       <c r="E70" t="n">
-        <v>50898326.77</v>
+        <v>9284445.960000001</v>
       </c>
       <c r="F70" t="n">
-        <v>8.6</v>
+        <v>5.44</v>
       </c>
       <c r="G70" t="n">
-        <v>0.01</v>
+        <v>9.67</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>zcash</t>
+          <t>reserve-rights</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Zcash</t>
+          <t>Reserve Rights</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>ZEC</t>
+          <t>RSR</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>263.05</v>
+        <v>0.08</v>
       </c>
       <c r="E71" t="n">
-        <v>16803222.98</v>
+        <v>36184964.28</v>
       </c>
       <c r="F71" t="n">
-        <v>8.380000000000001</v>
+        <v>0.61</v>
       </c>
       <c r="G71" t="n">
-        <v>22.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>elrond-egld</t>
+          <t>zcash</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>MultiversX</t>
+          <t>Zcash</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>EGLD</t>
+          <t>ZEC</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>176.96</v>
+        <v>258.83</v>
       </c>
       <c r="E72" t="n">
-        <v>12032498.71</v>
+        <v>14262262.36</v>
       </c>
       <c r="F72" t="n">
-        <v>9.91</v>
+        <v>1.73</v>
       </c>
       <c r="G72" t="n">
-        <v>17.54</v>
+        <v>4.48</v>
       </c>
     </row>
     <row r="73">
@@ -2546,16 +2546,16 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>12.4</v>
+        <v>12.47</v>
       </c>
       <c r="E73" t="n">
-        <v>15708897.3</v>
+        <v>16825011.75</v>
       </c>
       <c r="F73" t="n">
-        <v>7.14</v>
+        <v>2.21</v>
       </c>
       <c r="G73" t="n">
-        <v>0.89</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="74">
@@ -2578,13 +2578,13 @@
         <v>0.43</v>
       </c>
       <c r="E74" t="n">
-        <v>30450931.18</v>
+        <v>26229894.14</v>
       </c>
       <c r="F74" t="n">
-        <v>13.52</v>
+        <v>10.4</v>
       </c>
       <c r="G74" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="75">
@@ -2604,16 +2604,16 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>15.5</v>
+        <v>15.26</v>
       </c>
       <c r="E75" t="n">
-        <v>2487066.97</v>
+        <v>2200613.84</v>
       </c>
       <c r="F75" t="n">
-        <v>7.1</v>
+        <v>1.55</v>
       </c>
       <c r="G75" t="n">
-        <v>1.1</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="76">
@@ -2636,10 +2636,10 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>4618662.32</v>
+        <v>3804221.59</v>
       </c>
       <c r="F76" t="n">
-        <v>5.52</v>
+        <v>2</v>
       </c>
       <c r="G76" t="n">
         <v>0</v>
@@ -2648,59 +2648,59 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>amp</t>
+          <t>compound</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Amp</t>
+          <t>Compound</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>AMP</t>
+          <t>COMP</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>0.04</v>
+        <v>411.52</v>
       </c>
       <c r="E77" t="n">
-        <v>2802180.38</v>
+        <v>29467658.35</v>
       </c>
       <c r="F77" t="n">
-        <v>4.61</v>
+        <v>-1.14</v>
       </c>
       <c r="G77" t="n">
-        <v>0</v>
+        <v>-4.69</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>compound</t>
+          <t>amp</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Compound</t>
+          <t>Amp</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>COMP</t>
+          <t>AMP</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>409.99</v>
+        <v>0.04</v>
       </c>
       <c r="E78" t="n">
-        <v>38469718.73</v>
+        <v>2636466.48</v>
       </c>
       <c r="F78" t="n">
-        <v>2.05</v>
+        <v>-1.87</v>
       </c>
       <c r="G78" t="n">
-        <v>8.4</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="79">
@@ -2720,16 +2720,16 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>21.11</v>
+        <v>21.14</v>
       </c>
       <c r="E79" t="n">
-        <v>4551286.69</v>
+        <v>2608572.16</v>
       </c>
       <c r="F79" t="n">
-        <v>12.57</v>
+        <v>7</v>
       </c>
       <c r="G79" t="n">
-        <v>2.65</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="80">
@@ -2752,10 +2752,10 @@
         <v>0.04</v>
       </c>
       <c r="E80" t="n">
-        <v>884361.5600000001</v>
+        <v>815723.7</v>
       </c>
       <c r="F80" t="n">
-        <v>8.44</v>
+        <v>6.11</v>
       </c>
       <c r="G80" t="n">
         <v>0</v>
@@ -2778,16 +2778,16 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>11.9</v>
+        <v>11.77</v>
       </c>
       <c r="E81" t="n">
-        <v>11107057.72</v>
+        <v>8452913.58</v>
       </c>
       <c r="F81" t="n">
-        <v>6.01</v>
+        <v>2.24</v>
       </c>
       <c r="G81" t="n">
-        <v>0.72</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="82">
@@ -2807,306 +2807,306 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>2.78</v>
+        <v>2.75</v>
       </c>
       <c r="E82" t="n">
-        <v>12305918.87</v>
+        <v>9265464.800000001</v>
       </c>
       <c r="F82" t="n">
-        <v>6.47</v>
+        <v>1.91</v>
       </c>
       <c r="G82" t="n">
-        <v>0.18</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>gnosis-gno</t>
+          <t>trueusd</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Gnosis</t>
+          <t>TrueUSD</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>GNO</t>
+          <t>TUSD</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>1262.07</v>
+        <v>5.85</v>
       </c>
       <c r="E83" t="n">
-        <v>2402006.01</v>
+        <v>3968831.22</v>
       </c>
       <c r="F83" t="n">
-        <v>4.6</v>
+        <v>0.04</v>
       </c>
       <c r="G83" t="n">
-        <v>58.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>trueusd</t>
+          <t>superfarm</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>TrueUSD</t>
+          <t>SuperVerse</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>TUSD</t>
+          <t>SUPER</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>5.85</v>
+        <v>5.87</v>
       </c>
       <c r="E84" t="n">
-        <v>4828899.62</v>
+        <v>3648698.89</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.02</v>
+        <v>3.68</v>
       </c>
       <c r="G84" t="n">
-        <v>-0</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>superfarm</t>
+          <t>kava</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>SuperVerse</t>
+          <t>Kava</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>SUPER</t>
+          <t>KAVA</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>5.93</v>
+        <v>2.57</v>
       </c>
       <c r="E85" t="n">
-        <v>9418291.48</v>
+        <v>2886586</v>
       </c>
       <c r="F85" t="n">
-        <v>11.34</v>
+        <v>2.91</v>
       </c>
       <c r="G85" t="n">
-        <v>0.67</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>kava</t>
+          <t>nxm</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Kava</t>
+          <t>NXM</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>KAVA</t>
+          <t>NXM</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>2.58</v>
+        <v>398.97</v>
       </c>
       <c r="E86" t="n">
-        <v>4202767.19</v>
+        <v>1781224.33</v>
       </c>
       <c r="F86" t="n">
-        <v>7.1</v>
+        <v>3.47</v>
       </c>
       <c r="G86" t="n">
-        <v>0.18</v>
+        <v>13.84</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>vethor-token</t>
+          <t>1inch</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>VeThor Token</t>
+          <t>1inch Network</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>VTHO</t>
+          <t>1INCH</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>0.03</v>
+        <v>1.84</v>
       </c>
       <c r="E87" t="n">
-        <v>57210631.41</v>
+        <v>10906230.59</v>
       </c>
       <c r="F87" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>nxm</t>
+          <t>oasis-network</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>NXM</t>
+          <t>Oasis</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>NXM</t>
+          <t>ROSE</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>391.24</v>
+        <v>0.36</v>
       </c>
       <c r="E88" t="n">
-        <v>1992847.77</v>
+        <v>13412313.38</v>
       </c>
       <c r="F88" t="n">
-        <v>0.93</v>
+        <v>3.78</v>
       </c>
       <c r="G88" t="n">
-        <v>3.64</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>oasis-network</t>
+          <t>vethor-token</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Oasis</t>
+          <t>VeThor Token</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>ROSE</t>
+          <t>VTHO</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>0.37</v>
+        <v>0.03</v>
       </c>
       <c r="E89" t="n">
-        <v>16119618.06</v>
+        <v>48323336.31</v>
       </c>
       <c r="F89" t="n">
-        <v>8.56</v>
+        <v>-0.82</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>1inch</t>
+          <t>trust-wallet-token</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>1inch Network</t>
+          <t>Trust Wallet Token</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>1INCH</t>
+          <t>TWT</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>1.84</v>
+        <v>6.04</v>
       </c>
       <c r="E90" t="n">
-        <v>12792811.49</v>
+        <v>1897735.74</v>
       </c>
       <c r="F90" t="n">
-        <v>6.44</v>
+        <v>2.3</v>
       </c>
       <c r="G90" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>trust-wallet-token</t>
+          <t>livepeer</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Trust Wallet Token</t>
+          <t>Livepeer</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>TWT</t>
+          <t>LPT</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>6.08</v>
+        <v>66.09</v>
       </c>
       <c r="E91" t="n">
-        <v>2777812.5</v>
+        <v>9763803.43</v>
       </c>
       <c r="F91" t="n">
-        <v>4.78</v>
+        <v>4.69</v>
       </c>
       <c r="G91" t="n">
-        <v>0.29</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>livepeer</t>
+          <t>theta-fuel</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Livepeer</t>
+          <t>Theta Fuel</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>LPT</t>
+          <t>TFUEL</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>66.45</v>
+        <v>0.36</v>
       </c>
       <c r="E92" t="n">
-        <v>11370942.85</v>
+        <v>1011028.89</v>
       </c>
       <c r="F92" t="n">
-        <v>8.880000000000001</v>
+        <v>3.35</v>
       </c>
       <c r="G92" t="n">
-        <v>5.9</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="93">
@@ -3126,16 +3126,16 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>154.08</v>
+        <v>152.41</v>
       </c>
       <c r="E93" t="n">
-        <v>8580552.630000001</v>
+        <v>6932006.92</v>
       </c>
       <c r="F93" t="n">
-        <v>9.15</v>
+        <v>4.03</v>
       </c>
       <c r="G93" t="n">
-        <v>14.1</v>
+        <v>6.14</v>
       </c>
     </row>
     <row r="94">
@@ -3155,74 +3155,74 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>203.09</v>
+        <v>199.2</v>
       </c>
       <c r="E94" t="n">
-        <v>13431511.93</v>
+        <v>11355088.2</v>
       </c>
       <c r="F94" t="n">
-        <v>10.98</v>
+        <v>3.98</v>
       </c>
       <c r="G94" t="n">
-        <v>22.3</v>
+        <v>7.93</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>theta-fuel</t>
+          <t>nervos-network</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Theta Fuel</t>
+          <t>Nervos Network</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>TFUEL</t>
+          <t>CKB</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>0.36</v>
+        <v>0.05</v>
       </c>
       <c r="E95" t="n">
-        <v>1252713.57</v>
+        <v>6281782.71</v>
       </c>
       <c r="F95" t="n">
-        <v>5.5</v>
+        <v>2.58</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>nervos-network</t>
+          <t>just</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Nervos Network</t>
+          <t>JUST</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>CKB</t>
+          <t>JST</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>0.05</v>
+        <v>0.22</v>
       </c>
       <c r="E96" t="n">
-        <v>8647801.609999999</v>
+        <v>14429929.99</v>
       </c>
       <c r="F96" t="n">
-        <v>7.2</v>
+        <v>3.59</v>
       </c>
       <c r="G96" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="97">
@@ -3242,71 +3242,71 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>9.380000000000001</v>
+        <v>9.26</v>
       </c>
       <c r="E97" t="n">
-        <v>26249299.33</v>
+        <v>24456551.68</v>
       </c>
       <c r="F97" t="n">
-        <v>8.300000000000001</v>
+        <v>2.48</v>
       </c>
       <c r="G97" t="n">
-        <v>0.78</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>just</t>
+          <t>holo</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>JUST</t>
+          <t>Holo</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>JST</t>
+          <t>HOT</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>0.22</v>
+        <v>0.01</v>
       </c>
       <c r="E98" t="n">
-        <v>15940058.35</v>
+        <v>3263783.53</v>
       </c>
       <c r="F98" t="n">
-        <v>4</v>
+        <v>2.71</v>
       </c>
       <c r="G98" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>holo</t>
+          <t>zilliqa</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Holo</t>
+          <t>Zilliqa</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>HOT</t>
+          <t>ZIL</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>0.01</v>
+        <v>0.11</v>
       </c>
       <c r="E99" t="n">
-        <v>4628709.82</v>
+        <v>8711365.85</v>
       </c>
       <c r="F99" t="n">
-        <v>9.33</v>
+        <v>2.1</v>
       </c>
       <c r="G99" t="n">
         <v>0</v>
@@ -3315,59 +3315,59 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>zilliqa</t>
+          <t>0x</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Zilliqa</t>
+          <t>0x Protocol</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>ZIL</t>
+          <t>ZRX</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>0.11</v>
+        <v>2.48</v>
       </c>
       <c r="E100" t="n">
-        <v>10357053.51</v>
+        <v>5855645.41</v>
       </c>
       <c r="F100" t="n">
-        <v>6.06</v>
+        <v>3.16</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>0x</t>
+          <t>skale-network</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>0x Protocol</t>
+          <t>SKALE</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>ZRX</t>
+          <t>SKL</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>2.5</v>
+        <v>0.35</v>
       </c>
       <c r="E101" t="n">
-        <v>7149890.91</v>
+        <v>48509289.37</v>
       </c>
       <c r="F101" t="n">
-        <v>8.77</v>
+        <v>-4.54</v>
       </c>
       <c r="G101" t="n">
-        <v>0.22</v>
+        <v>-0.02</v>
       </c>
     </row>
   </sheetData>
